--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-F2r.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gnai2-F2r.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H2">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I2">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J2">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.23734222410187</v>
+        <v>8.275247666666667</v>
       </c>
       <c r="N2">
-        <v>7.23734222410187</v>
+        <v>24.825743</v>
       </c>
       <c r="O2">
-        <v>0.09751719130580477</v>
+        <v>0.1035475654300768</v>
       </c>
       <c r="P2">
-        <v>0.09751719130580477</v>
+        <v>0.1152196269592993</v>
       </c>
       <c r="Q2">
-        <v>997.9655689030027</v>
+        <v>1255.570820532083</v>
       </c>
       <c r="R2">
-        <v>997.9655689030027</v>
+        <v>11300.13738478874</v>
       </c>
       <c r="S2">
-        <v>0.02550971787765466</v>
+        <v>0.02796549958364157</v>
       </c>
       <c r="T2">
-        <v>0.02550971787765466</v>
+        <v>0.03206984496669728</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H3">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I3">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J3">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.4847453452188</v>
+        <v>47.354572</v>
       </c>
       <c r="N3">
-        <v>45.4847453452188</v>
+        <v>142.063716</v>
       </c>
       <c r="O3">
-        <v>0.6128692655370391</v>
+        <v>0.5925442766305059</v>
       </c>
       <c r="P3">
-        <v>0.6128692655370391</v>
+        <v>0.6593368972671567</v>
       </c>
       <c r="Q3">
-        <v>6271.944639246695</v>
+        <v>7184.923185016327</v>
       </c>
       <c r="R3">
-        <v>6271.944639246695</v>
+        <v>64664.30866514694</v>
       </c>
       <c r="S3">
-        <v>0.1603217017470094</v>
+        <v>0.1600307709077861</v>
       </c>
       <c r="T3">
-        <v>0.1603217017470094</v>
+        <v>0.1835176231185875</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>137.891167503392</v>
+        <v>151.7260716666667</v>
       </c>
       <c r="H4">
-        <v>137.891167503392</v>
+        <v>455.178215</v>
       </c>
       <c r="I4">
-        <v>0.2615920078918041</v>
+        <v>0.2700739458961593</v>
       </c>
       <c r="J4">
-        <v>0.2615920078918041</v>
+        <v>0.2783366498663096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.4939775899623</v>
+        <v>24.2875365</v>
       </c>
       <c r="N4">
-        <v>21.4939775899623</v>
+        <v>48.575073</v>
       </c>
       <c r="O4">
-        <v>0.2896135431571559</v>
+        <v>0.3039081579394173</v>
       </c>
       <c r="P4">
-        <v>0.2896135431571559</v>
+        <v>0.225443475773544</v>
       </c>
       <c r="Q4">
-        <v>2963.829664171646</v>
+        <v>3685.052503605782</v>
       </c>
       <c r="R4">
-        <v>2963.829664171646</v>
+        <v>22110.31502163469</v>
       </c>
       <c r="S4">
-        <v>0.07576058826714009</v>
+        <v>0.08207767540473161</v>
       </c>
       <c r="T4">
-        <v>0.07576058826714009</v>
+        <v>0.06274918178102476</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H5">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I5">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J5">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.23734222410187</v>
+        <v>8.275247666666667</v>
       </c>
       <c r="N5">
-        <v>7.23734222410187</v>
+        <v>24.825743</v>
       </c>
       <c r="O5">
-        <v>0.09751719130580477</v>
+        <v>0.1035475654300768</v>
       </c>
       <c r="P5">
-        <v>0.09751719130580477</v>
+        <v>0.1152196269592993</v>
       </c>
       <c r="Q5">
-        <v>547.181167262025</v>
+        <v>680.6297778287177</v>
       </c>
       <c r="R5">
-        <v>547.181167262025</v>
+        <v>6125.668000458459</v>
       </c>
       <c r="S5">
-        <v>0.01398689257402298</v>
+        <v>0.01515975957486557</v>
       </c>
       <c r="T5">
-        <v>0.01398689257402298</v>
+        <v>0.01738467563736031</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H6">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I6">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J6">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.4847453452188</v>
+        <v>47.354572</v>
       </c>
       <c r="N6">
-        <v>45.4847453452188</v>
+        <v>142.063716</v>
       </c>
       <c r="O6">
-        <v>0.6128692655370391</v>
+        <v>0.5925442766305059</v>
       </c>
       <c r="P6">
-        <v>0.6128692655370391</v>
+        <v>0.6593368972671567</v>
       </c>
       <c r="Q6">
-        <v>3438.886165660261</v>
+        <v>3894.860083688211</v>
       </c>
       <c r="R6">
-        <v>3438.886165660261</v>
+        <v>35053.74075319391</v>
       </c>
       <c r="S6">
-        <v>0.08790385022580802</v>
+        <v>0.08675074815976233</v>
       </c>
       <c r="T6">
-        <v>0.08790385022580802</v>
+        <v>0.09948268708405117</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.6052636891754</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
-        <v>75.6052636891754</v>
+        <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.1434300187149709</v>
+        <v>0.146403824289839</v>
       </c>
       <c r="J7">
-        <v>0.1434300187149709</v>
+        <v>0.150882936320401</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.4939775899623</v>
+        <v>24.2875365</v>
       </c>
       <c r="N7">
-        <v>21.4939775899623</v>
+        <v>48.575073</v>
       </c>
       <c r="O7">
-        <v>0.2896135431571559</v>
+        <v>0.3039081579394173</v>
       </c>
       <c r="P7">
-        <v>0.2896135431571559</v>
+        <v>0.225443475773544</v>
       </c>
       <c r="Q7">
-        <v>1625.057843418326</v>
+        <v>1997.622456496291</v>
       </c>
       <c r="R7">
-        <v>1625.057843418326</v>
+        <v>11985.73473897775</v>
       </c>
       <c r="S7">
-        <v>0.04153927591513992</v>
+        <v>0.04449331655521108</v>
       </c>
       <c r="T7">
-        <v>0.04153927591513992</v>
+        <v>0.0340155735989895</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H8">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I8">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J8">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.23734222410187</v>
+        <v>8.275247666666667</v>
       </c>
       <c r="N8">
-        <v>7.23734222410187</v>
+        <v>24.825743</v>
       </c>
       <c r="O8">
-        <v>0.09751719130580477</v>
+        <v>0.1035475654300768</v>
       </c>
       <c r="P8">
-        <v>0.09751719130580477</v>
+        <v>0.1152196269592993</v>
       </c>
       <c r="Q8">
-        <v>824.4542955978657</v>
+        <v>1021.532329318501</v>
       </c>
       <c r="R8">
-        <v>824.4542955978657</v>
+        <v>9193.79096386651</v>
       </c>
       <c r="S8">
-        <v>0.02107447104296463</v>
+        <v>0.02275272845073495</v>
       </c>
       <c r="T8">
-        <v>0.02107447104296463</v>
+        <v>0.02609202355931652</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H9">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I9">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J9">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.4847453452188</v>
+        <v>47.354572</v>
       </c>
       <c r="N9">
-        <v>45.4847453452188</v>
+        <v>142.063716</v>
       </c>
       <c r="O9">
-        <v>0.6128692655370391</v>
+        <v>0.5925442766305059</v>
       </c>
       <c r="P9">
-        <v>0.6128692655370391</v>
+        <v>0.6593368972671567</v>
       </c>
       <c r="Q9">
-        <v>5181.473049479057</v>
+        <v>5845.652986785612</v>
       </c>
       <c r="R9">
-        <v>5181.473049479057</v>
+        <v>52610.87688107051</v>
       </c>
       <c r="S9">
-        <v>0.1324473707326157</v>
+        <v>0.1302010237055273</v>
       </c>
       <c r="T9">
-        <v>0.1324473707326157</v>
+        <v>0.1493099249757017</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>113.916721093036</v>
+        <v>123.444321</v>
       </c>
       <c r="H10">
-        <v>113.916721093036</v>
+        <v>370.332963</v>
       </c>
       <c r="I10">
-        <v>0.2161103161480222</v>
+        <v>0.2197321429647646</v>
       </c>
       <c r="J10">
-        <v>0.2161103161480222</v>
+        <v>0.2264546783208506</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.4939775899623</v>
+        <v>24.2875365</v>
       </c>
       <c r="N10">
-        <v>21.4939775899623</v>
+        <v>48.575073</v>
       </c>
       <c r="O10">
-        <v>0.2896135431571559</v>
+        <v>0.3039081579394173</v>
       </c>
       <c r="P10">
-        <v>0.2896135431571559</v>
+        <v>0.225443475773544</v>
       </c>
       <c r="Q10">
-        <v>2448.523450295701</v>
+        <v>2998.158452005217</v>
       </c>
       <c r="R10">
-        <v>2448.523450295701</v>
+        <v>17988.9507120313</v>
       </c>
       <c r="S10">
-        <v>0.06258847437244183</v>
+        <v>0.0667783908085023</v>
       </c>
       <c r="T10">
-        <v>0.06258847437244183</v>
+        <v>0.05105272978583238</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H11">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I11">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J11">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.23734222410187</v>
+        <v>8.275247666666667</v>
       </c>
       <c r="N11">
-        <v>7.23734222410187</v>
+        <v>24.825743</v>
       </c>
       <c r="O11">
-        <v>0.09751719130580477</v>
+        <v>0.1035475654300768</v>
       </c>
       <c r="P11">
-        <v>0.09751719130580477</v>
+        <v>0.1152196269592993</v>
       </c>
       <c r="Q11">
-        <v>1092.129589440004</v>
+        <v>1277.226357527221</v>
       </c>
       <c r="R11">
-        <v>1092.129589440004</v>
+        <v>11495.03721774499</v>
       </c>
       <c r="S11">
-        <v>0.02791671234016407</v>
+        <v>0.02844783630325762</v>
       </c>
       <c r="T11">
-        <v>0.02791671234016407</v>
+        <v>0.03262297164242741</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H12">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I12">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J12">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>45.4847453452188</v>
+        <v>47.354572</v>
       </c>
       <c r="N12">
-        <v>45.4847453452188</v>
+        <v>142.063716</v>
       </c>
       <c r="O12">
-        <v>0.6128692655370391</v>
+        <v>0.5925442766305059</v>
       </c>
       <c r="P12">
-        <v>0.6128692655370391</v>
+        <v>0.6593368972671567</v>
       </c>
       <c r="Q12">
-        <v>6863.740130213541</v>
+        <v>7308.845601255985</v>
       </c>
       <c r="R12">
-        <v>6863.740130213541</v>
+        <v>65779.61041130387</v>
       </c>
       <c r="S12">
-        <v>0.1754490132357484</v>
+        <v>0.1627909117322482</v>
       </c>
       <c r="T12">
-        <v>0.1754490132357484</v>
+        <v>0.186682854909352</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>150.902023922951</v>
+        <v>154.3429766666667</v>
       </c>
       <c r="H13">
-        <v>150.902023922951</v>
+        <v>463.02893</v>
       </c>
       <c r="I13">
-        <v>0.2862747784913111</v>
+        <v>0.2747320633285943</v>
       </c>
       <c r="J13">
-        <v>0.2862747784913111</v>
+        <v>0.2831372788071194</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.4939775899623</v>
+        <v>24.2875365</v>
       </c>
       <c r="N13">
-        <v>21.4939775899623</v>
+        <v>48.575073</v>
       </c>
       <c r="O13">
-        <v>0.2896135431571559</v>
+        <v>0.3039081579394173</v>
       </c>
       <c r="P13">
-        <v>0.2896135431571559</v>
+        <v>0.225443475773544</v>
       </c>
       <c r="Q13">
-        <v>3243.484720479863</v>
+        <v>3748.610679310314</v>
       </c>
       <c r="R13">
-        <v>3243.484720479863</v>
+        <v>22491.66407586189</v>
       </c>
       <c r="S13">
-        <v>0.08290905291539857</v>
+        <v>0.08349331529308843</v>
       </c>
       <c r="T13">
-        <v>0.08290905291539857</v>
+        <v>0.06383145225534</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>48.8078372759574</v>
+        <v>50.0323125</v>
       </c>
       <c r="H14">
-        <v>48.8078372759574</v>
+        <v>100.064625</v>
       </c>
       <c r="I14">
-        <v>0.09259287875389165</v>
+        <v>0.08905802352064279</v>
       </c>
       <c r="J14">
-        <v>0.09259287875389165</v>
+        <v>0.06118845668531954</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.23734222410187</v>
+        <v>8.275247666666667</v>
       </c>
       <c r="N14">
-        <v>7.23734222410187</v>
+        <v>24.825743</v>
       </c>
       <c r="O14">
-        <v>0.09751719130580477</v>
+        <v>0.1035475654300768</v>
       </c>
       <c r="P14">
-        <v>0.09751719130580477</v>
+        <v>0.1152196269592993</v>
       </c>
       <c r="Q14">
-        <v>353.2390215843797</v>
+        <v>414.0297772735626</v>
       </c>
       <c r="R14">
-        <v>353.2390215843797</v>
+        <v>2484.178663641375</v>
       </c>
       <c r="S14">
-        <v>0.009029397470998438</v>
+        <v>0.009221741517577077</v>
       </c>
       <c r="T14">
-        <v>0.009029397470998438</v>
+        <v>0.007050111153497759</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>48.8078372759574</v>
+        <v>50.0323125</v>
       </c>
       <c r="H15">
-        <v>48.8078372759574</v>
+        <v>100.064625</v>
       </c>
       <c r="I15">
-        <v>0.09259287875389165</v>
+        <v>0.08905802352064279</v>
       </c>
       <c r="J15">
-        <v>0.09259287875389165</v>
+        <v>0.06118845668531954</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.4847453452188</v>
+        <v>47.354572</v>
       </c>
       <c r="N15">
-        <v>45.4847453452188</v>
+        <v>142.063716</v>
       </c>
       <c r="O15">
-        <v>0.6128692655370391</v>
+        <v>0.5925442766305059</v>
       </c>
       <c r="P15">
-        <v>0.6128692655370391</v>
+        <v>0.6593368972671567</v>
       </c>
       <c r="Q15">
-        <v>2220.0120493478</v>
+        <v>2369.25874460775</v>
       </c>
       <c r="R15">
-        <v>2220.0120493478</v>
+        <v>14215.5524676465</v>
       </c>
       <c r="S15">
-        <v>0.05674732959585769</v>
+        <v>0.05277082212518187</v>
       </c>
       <c r="T15">
-        <v>0.05674732959585769</v>
+        <v>0.0403438071794644</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>48.8078372759574</v>
+        <v>50.0323125</v>
       </c>
       <c r="H16">
-        <v>48.8078372759574</v>
+        <v>100.064625</v>
       </c>
       <c r="I16">
-        <v>0.09259287875389165</v>
+        <v>0.08905802352064279</v>
       </c>
       <c r="J16">
-        <v>0.09259287875389165</v>
+        <v>0.06118845668531954</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.4939775899623</v>
+        <v>24.2875365</v>
       </c>
       <c r="N16">
-        <v>21.4939775899623</v>
+        <v>48.575073</v>
       </c>
       <c r="O16">
-        <v>0.2896135431571559</v>
+        <v>0.3039081579394173</v>
       </c>
       <c r="P16">
-        <v>0.2896135431571559</v>
+        <v>0.225443475773544</v>
       </c>
       <c r="Q16">
-        <v>1049.074560623955</v>
+        <v>1215.161616023156</v>
       </c>
       <c r="R16">
-        <v>1049.074560623955</v>
+        <v>4860.646464092625</v>
       </c>
       <c r="S16">
-        <v>0.0268161516870355</v>
+        <v>0.02706545987788385</v>
       </c>
       <c r="T16">
-        <v>0.0268161516870355</v>
+        <v>0.01379453835235738</v>
       </c>
     </row>
   </sheetData>
